--- a/完成情况.xlsx
+++ b/完成情况.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\kmax\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F762360E-AE22-411C-BAED-D5730A0EABA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1E3BDC-06A3-475B-AD86-2BE45CB66BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{2BE4E0E0-2F83-4F3E-8217-3B5BBFE1BEB3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2BE4E0E0-2F83-4F3E-8217-3B5BBFE1BEB3}"/>
   </bookViews>
   <sheets>
     <sheet name="完成情况" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="135">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -594,6 +594,10 @@
   </si>
   <si>
     <t>Relatedness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1048,10 +1052,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97293C1-7C6D-460D-9B51-E0435405AD7C}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1063,14 +1067,15 @@
     <col min="5" max="5" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="1"/>
+    <col min="8" max="8" width="14.5546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1090,22 +1095,25 @@
         <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1127,23 +1135,27 @@
       <c r="G2" s="1">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="1">
+        <f>SUM(B2:G2)</f>
+        <v>86</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>0</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>100000</v>
       </c>
-      <c r="K2" s="1">
+      <c r="L2" s="1">
         <v>100</v>
       </c>
-      <c r="L2" s="1">
+      <c r="M2" s="1">
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -1164,6 +1176,10 @@
       </c>
       <c r="G3" s="1">
         <v>3</v>
+      </c>
+      <c r="H3" s="1">
+        <f>SUM(B3:G3)</f>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1176,7 +1192,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D83AF8B0-590D-4577-BF03-39C8D354C3A1}">
   <dimension ref="A1:AW35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
